--- a/xlsx/McGraw-Hill_intext.xlsx
+++ b/xlsx/McGraw-Hill_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>McGraw-Hill</t>
   </si>
@@ -35,13 +35,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E8%AD%89%E5%88%B8%E4%BA%A4%E6%98%93%E6%89%80</t>
   </si>
   <si>
-    <t>紐約證券交易所</t>
+    <t>纽约证券交易所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
   </si>
   <si>
-    <t>紐約市</t>
+    <t>纽约市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CEO</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E6%A5%AD%E9%A1%8D</t>
   </si>
   <si>
-    <t>營業額</t>
+    <t>营业额</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%85%E5%89%8D%E6%81%AF%E5%89%8D%E5%88%A9%E6%BD%A4</t>
   </si>
   <si>
-    <t>稅前息前利潤</t>
+    <t>税前息前利润</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%B6%A6</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E6%BA%96%E6%99%AE%E7%88%BE</t>
   </si>
   <si>
-    <t>標準普爾</t>
+    <t>标准普尔</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/J.D._Power_and_Associates</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E5%85%8B%E8%8F%B2%E5%8B%92%E4%B8%AD%E5%BF%83</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E7%A7%91%E6%9B%B8</t>
   </si>
   <si>
-    <t>教科書</t>
+    <t>教科书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E6%9C%AF%E6%9C%9F%E5%88%8A</t>
@@ -147,9 +147,6 @@
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%87%E5%87%86%E6%99%AE%E5%B0%94</t>
-  </si>
-  <si>
-    <t>标准普尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E6%A0%BC%E5%8A%B3-%E5%B8%8C%E5%B0%94%E9%9B%86%E5%9B%A2</t>
@@ -764,7 +761,7 @@
         <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
@@ -1138,7 +1135,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1164,10 +1161,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -1193,10 +1190,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
